--- a/covariate_description.xlsx
+++ b/covariate_description.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankiecho/Library/CloudStorage/OneDrive-TheUniversityofQueensland/Documents/Habitat_clearing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqychun7\Documents\Data\NSW_Deforestation\risk-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C83EEC-77D4-6941-BD82-5A6FB3B5B78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{986D595E-087D-426E-9A73-AB7529275658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="4920" windowWidth="28040" windowHeight="17440" xr2:uid="{C97FBC6B-6CE5-764B-8ABB-DBD66B79C4E6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C97FBC6B-6CE5-764B-8ABB-DBD66B79C4E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AllLyr" sheetId="10" r:id="rId1"/>
     <sheet name="landuse" sheetId="2" r:id="rId2"/>
     <sheet name="drought" sheetId="3" r:id="rId3"/>
     <sheet name="soil_fert" sheetId="4" r:id="rId4"/>
     <sheet name="soil_type" sheetId="5" r:id="rId5"/>
     <sheet name="fire" sheetId="6" r:id="rId6"/>
     <sheet name="remoteness" sheetId="7" r:id="rId7"/>
+    <sheet name="SoilPCA" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllLyr!$A$1:$L$53</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="411">
   <si>
     <t>VARIABLE_NAME</t>
   </si>
@@ -783,6 +788,498 @@
   </si>
   <si>
     <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/72758</t>
+  </si>
+  <si>
+    <t>woody_nsw</t>
+  </si>
+  <si>
+    <t>Woody Vegetation Extent (2011)</t>
+  </si>
+  <si>
+    <t>https://data.tern.org.au/rs/public/data/spot/woody_fpc_extent/nsw-2011/s5hgps_nsw_y20082011_bcul0.tif</t>
+  </si>
+  <si>
+    <t>TERN/ SEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available water capacity </t>
+  </si>
+  <si>
+    <t>Bulk Density (whole earth)</t>
+  </si>
+  <si>
+    <t>Coarse Fragments</t>
+  </si>
+  <si>
+    <t>Effective Cation Exchange Capacity</t>
+  </si>
+  <si>
+    <t>Cation Exchange Capacity</t>
+  </si>
+  <si>
+    <t>Clay </t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Depth of Regolith</t>
+  </si>
+  <si>
+    <t>Depth of Soil</t>
+  </si>
+  <si>
+    <t>Microbial Biodiversity</t>
+  </si>
+  <si>
+    <t>pH (Water)</t>
+  </si>
+  <si>
+    <t>pH (CaCl2)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Drained Upper Limit</t>
+  </si>
+  <si>
+    <t>Lower Limit (15 Bar)%</t>
+  </si>
+  <si>
+    <t>AWC</t>
+  </si>
+  <si>
+    <t>BDW</t>
+  </si>
+  <si>
+    <t>CEC</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>DER</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>PHW</t>
+  </si>
+  <si>
+    <t>DUL</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>NTO</t>
+  </si>
+  <si>
+    <t>PTO</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>AVP</t>
+  </si>
+  <si>
+    <t>Variable Code</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>PCA_Tsoil</t>
+  </si>
+  <si>
+    <t>PCA_Asoil</t>
+  </si>
+  <si>
+    <t>Soil organic carbon stocks</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/6383f240-484e-490f-b88e-526b6b99c025/download/soc_means_3depthsto1m_220901.zip</t>
+  </si>
+  <si>
+    <t>0_30</t>
+  </si>
+  <si>
+    <t>30_60</t>
+  </si>
+  <si>
+    <t>60_100</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/74753daf-d2a4-42bf-9866-d61baf2562d9/download/ph_means_alldepthto2m_220901.zip</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Ref: Gray JM (2023) Digital soil mapping of key soil properties over New South Wales, version 2.0, Technical Report, NSW Department of Planning and Environment, Parramatta.</t>
+  </si>
+  <si>
+    <t>Use this instead of pH (water) as this closely represents the ionic soil solutions typically found in the field, and thus gives more consistent results. (Gray 2023)</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>100_200</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/10e32454-e41b-4de3-8aef-8933f2bae8a3/download/cations_means_alldepthsto2m_220901.zip</t>
+  </si>
+  <si>
+    <t>SOB</t>
+  </si>
+  <si>
+    <t>sum-of-bases</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/a73f8ac0-e0e6-458f-a4d1-3bead824d2ae/download/pbray_means_alldepthsto2m_220901.zip</t>
+  </si>
+  <si>
+    <t>Layers/depth</t>
+  </si>
+  <si>
+    <t>Available Phosphorus (bray)</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/9eb8596b-05ae-473b-9e27-18b637773091/download/bulkdensity_means_alldepthsto30cm_220901.zip</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/154f1ce0-8fbb-460f-98c1-323fea153d26/download/particle_sizes_means_alldepthsto2m_220901.zip</t>
+  </si>
+  <si>
+    <t>Finesand</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>slit</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>Fsand</t>
+  </si>
+  <si>
+    <t>https://esoil.io/TERNLandscapes/Public/Pages/SLGA/GetData-COGSDataStore_SLGA.html</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Farm sustainbility</t>
+  </si>
+  <si>
+    <t>ABS / ABARES</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Private native forest permit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulation (LLS / </t>
+  </si>
+  <si>
+    <t>Cov_Catogory</t>
+  </si>
+  <si>
+    <t>Socioeconomics</t>
+  </si>
+  <si>
+    <t>Employment / unemployment</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Nature Relatedness</t>
+  </si>
+  <si>
+    <t>Household income</t>
+  </si>
+  <si>
+    <t>Political preference</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Land Use</t>
+  </si>
+  <si>
+    <t>Land use type</t>
+  </si>
+  <si>
+    <t>Economic productivity</t>
+  </si>
+  <si>
+    <t>Land value</t>
+  </si>
+  <si>
+    <t>Agricultural productivity</t>
+  </si>
+  <si>
+    <t>Agricultural profit</t>
+  </si>
+  <si>
+    <t>Farm Terms of Trade</t>
+  </si>
+  <si>
+    <t>Farm Sustainability</t>
+  </si>
+  <si>
+    <t>Farm debt</t>
+  </si>
+  <si>
+    <t>Farm Assets</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Soil Fertility</t>
+  </si>
+  <si>
+    <t>Water Avalability</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Covariate Code</t>
+  </si>
+  <si>
+    <t>Covariate Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsoil_PC1, Tsoil_PC2 </t>
+  </si>
+  <si>
+    <t>Topography</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Conservation Value</t>
+  </si>
+  <si>
+    <t>Threatened Species / Ecological communities</t>
+  </si>
+  <si>
+    <t>Koala presence /absence</t>
+  </si>
+  <si>
+    <t>Koala habitat quality</t>
+  </si>
+  <si>
+    <t>Regulation</t>
+  </si>
+  <si>
+    <t>Policy uncertainty</t>
+  </si>
+  <si>
+    <t>Mismatch in regulation &amp; enforcement</t>
+  </si>
+  <si>
+    <t>regulatory understanding / Opaque policy</t>
+  </si>
+  <si>
+    <t>Uncertainty and risk tolerance</t>
+  </si>
+  <si>
+    <t>Population Growth</t>
+  </si>
+  <si>
+    <t>Distance to road</t>
+  </si>
+  <si>
+    <t>Distance to urban center</t>
+  </si>
+  <si>
+    <t>Land use intensity</t>
+  </si>
+  <si>
+    <t>Land use constraints</t>
+  </si>
+  <si>
+    <t>Planning Zones</t>
+  </si>
+  <si>
+    <t>Development intensity</t>
+  </si>
+  <si>
+    <t>Social Desirability</t>
+  </si>
+  <si>
+    <t>Cost and benefit of development</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>Habitat values / ecological condition</t>
+  </si>
+  <si>
+    <t>Biodiversity Conservation Act</t>
+  </si>
+  <si>
+    <t>Native Vegetation Act</t>
+  </si>
+  <si>
+    <t>SEPP 44/20</t>
+  </si>
+  <si>
+    <t>EPBC Act</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Local Environment plan</t>
+  </si>
+  <si>
+    <t>Land use regulations</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Not present</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>ABS-2016 Census GCP Statistical Area 1 for NSW</t>
+  </si>
+  <si>
+    <t>ABS?</t>
+  </si>
+  <si>
+    <t>PopDen</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Land tenure</t>
+  </si>
+  <si>
+    <t>https://www.agriculture.gov.au/abares/aclump/land_tenure_2010-11_2015-16</t>
+  </si>
+  <si>
+    <t>ABARES?</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Agri</t>
+  </si>
+  <si>
+    <t>ForTen</t>
+  </si>
+  <si>
+    <t>ForTenType</t>
+  </si>
+  <si>
+    <t>SEED Land use (NSW Landuse 2013)</t>
+  </si>
+  <si>
+    <t>LandUse</t>
+  </si>
+  <si>
+    <t>EDIS - Combined Drought Indicator</t>
+  </si>
+  <si>
+    <t>Infr</t>
+  </si>
+  <si>
+    <t>Fort</t>
+  </si>
+  <si>
+    <t>Property Size</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Calculated from Spatial Units</t>
+  </si>
+  <si>
+    <t>PropVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSW Valuer General database </t>
+  </si>
+  <si>
+    <t>https://urldefense.com/v3/__https:/www.valuergeneral.nsw.gov.au/land_value_summaries/lv.php__;!!NVzLfOphnbDXSw!GGhkHhFrVw0Si36_pgv3lCSudsnOVb8fyG3NZWVR4AOi3FGXPMyiDo59qBEBpUAmMZfYJIvaIXUoSAWlalBA$</t>
+  </si>
+  <si>
+    <t>SoilFert</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>SoilPCA</t>
+  </si>
+  <si>
+    <t>Refer to SoilPCA sheet</t>
+  </si>
+  <si>
+    <t>ForCode</t>
+  </si>
+  <si>
+    <t>Woody</t>
+  </si>
+  <si>
+    <t>Response_variable</t>
+  </si>
+  <si>
+    <t>Use Proxy?</t>
+  </si>
+  <si>
+    <t>ABS? ABARES?</t>
+  </si>
+  <si>
+    <t>EcolCond</t>
   </si>
 </sst>
 </file>
@@ -1321,24 +1818,3792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AFD73C-5873-0E46-9099-53872177BBC1}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511F1879-4772-4940-A1D9-1CD7B53DD24C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="143" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="163.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J4" t="s">
+        <v>379</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>377</v>
+      </c>
+      <c r="J5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>386</v>
+      </c>
+      <c r="J8" t="s">
+        <v>379</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>377</v>
+      </c>
+      <c r="J9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>377</v>
+      </c>
+      <c r="J10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>386</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>386</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>377</v>
+      </c>
+      <c r="J13" t="s">
+        <v>385</v>
+      </c>
+      <c r="L13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>386</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>386</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" t="s">
+        <v>363</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>386</v>
+      </c>
+      <c r="J21" t="s">
+        <v>390</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>377</v>
+      </c>
+      <c r="J27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>377</v>
+      </c>
+      <c r="J28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" t="s">
+        <v>342</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>402</v>
+      </c>
+      <c r="J29" t="s">
+        <v>404</v>
+      </c>
+      <c r="K29" t="s">
+        <v>403</v>
+      </c>
+      <c r="L29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>402</v>
+      </c>
+      <c r="J30" t="s">
+        <v>404</v>
+      </c>
+      <c r="K30" t="s">
+        <v>403</v>
+      </c>
+      <c r="L30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>386</v>
+      </c>
+      <c r="J31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>386</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>386</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>386</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>386</v>
+      </c>
+      <c r="J35" t="s">
+        <v>392</v>
+      </c>
+      <c r="K35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>386</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C37" t="s">
+        <v>348</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>386</v>
+      </c>
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C42" t="s">
+        <v>354</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" t="s">
+        <v>355</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>353</v>
+      </c>
+      <c r="C44" t="s">
+        <v>356</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" t="s">
+        <v>357</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" t="s">
+        <v>370</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" t="s">
+        <v>372</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>373</v>
+      </c>
+      <c r="C50" t="s">
+        <v>374</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" t="s">
+        <v>366</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>386</v>
+      </c>
+      <c r="J51" t="s">
+        <v>399</v>
+      </c>
+      <c r="L51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" t="s">
+        <v>367</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>396</v>
+      </c>
+      <c r="C53" t="s">
+        <v>395</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L53" xr:uid="{511F1879-4772-4940-A1D9-1CD7B53DD24C}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Not present"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FF454D-47F9-904A-BF22-5D331A89389C}">
+  <dimension ref="A1:A140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="45.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A843DB-AE6D-9F4F-B2AB-2929BE20E320}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F178FA-2F86-0243-B5CE-4BD4F83712A1}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9790E9F-886B-664F-95DF-E48DD5572235}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF371DA-7DA5-0446-8C1E-07E4C7FFD2D9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EA8C64-6848-3447-8CF3-97331B367FAE}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F2D92A-8A92-4662-A12F-F10680C92396}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" t="s">
+        <v>288</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" t="s">
+        <v>296</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" t="s">
+        <v>296</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" t="s">
+        <v>290</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AFD73C-5873-0E46-9099-53872177BBC1}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="1" customWidth="1"/>
+    <col min="6" max="6" width="163.3984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +5623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +5643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +5663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1412,7 +5677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +5687,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1440,7 +5705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +5723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +5741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>243</v>
       </c>
@@ -1494,7 +5759,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1512,7 +5777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1532,7 +5797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>206</v>
       </c>
@@ -1550,7 +5815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>207</v>
       </c>
@@ -1570,7 +5835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1588,7 +5853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1608,7 +5873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1628,7 +5893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +5913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1666,7 +5931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +5949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1700,6 +5965,46 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1716,1295 +6021,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FF454D-47F9-904A-BF22-5D331A89389C}">
-  <dimension ref="A1:A140"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A843DB-AE6D-9F4F-B2AB-2929BE20E320}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F178FA-2F86-0243-B5CE-4BD4F83712A1}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9790E9F-886B-664F-95DF-E48DD5572235}">
-  <dimension ref="A1:C52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF371DA-7DA5-0446-8C1E-07E4C7FFD2D9}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EA8C64-6848-3447-8CF3-97331B367FAE}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/covariate_description.xlsx
+++ b/covariate_description.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankiecho/Library/CloudStorage/OneDrive-TheUniversityofQueensland/Documents/Habitat_clearing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqychun7\Documents\Data\NSW_Deforestation\risk-model-covariates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C83EEC-77D4-6941-BD82-5A6FB3B5B78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A6685-E23C-4732-BE77-6942F437ECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="4920" windowWidth="28040" windowHeight="17440" xr2:uid="{C97FBC6B-6CE5-764B-8ABB-DBD66B79C4E6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C97FBC6B-6CE5-764B-8ABB-DBD66B79C4E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AllLyr" sheetId="10" r:id="rId1"/>
     <sheet name="landuse" sheetId="2" r:id="rId2"/>
     <sheet name="drought" sheetId="3" r:id="rId3"/>
     <sheet name="soil_fert" sheetId="4" r:id="rId4"/>
     <sheet name="soil_type" sheetId="5" r:id="rId5"/>
     <sheet name="fire" sheetId="6" r:id="rId6"/>
     <sheet name="remoteness" sheetId="7" r:id="rId7"/>
+    <sheet name="SoilPCA" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllLyr!$A$1:$L$53</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="411">
   <si>
     <t>VARIABLE_NAME</t>
   </si>
@@ -783,6 +788,498 @@
   </si>
   <si>
     <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/72758</t>
+  </si>
+  <si>
+    <t>woody_nsw</t>
+  </si>
+  <si>
+    <t>Woody Vegetation Extent (2011)</t>
+  </si>
+  <si>
+    <t>https://data.tern.org.au/rs/public/data/spot/woody_fpc_extent/nsw-2011/s5hgps_nsw_y20082011_bcul0.tif</t>
+  </si>
+  <si>
+    <t>TERN/ SEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available water capacity </t>
+  </si>
+  <si>
+    <t>Bulk Density (whole earth)</t>
+  </si>
+  <si>
+    <t>Coarse Fragments</t>
+  </si>
+  <si>
+    <t>Effective Cation Exchange Capacity</t>
+  </si>
+  <si>
+    <t>Cation Exchange Capacity</t>
+  </si>
+  <si>
+    <t>Clay </t>
+  </si>
+  <si>
+    <t>Silt</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Depth of Regolith</t>
+  </si>
+  <si>
+    <t>Depth of Soil</t>
+  </si>
+  <si>
+    <t>Microbial Biodiversity</t>
+  </si>
+  <si>
+    <t>pH (Water)</t>
+  </si>
+  <si>
+    <t>pH (CaCl2)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Drained Upper Limit</t>
+  </si>
+  <si>
+    <t>Lower Limit (15 Bar)%</t>
+  </si>
+  <si>
+    <t>AWC</t>
+  </si>
+  <si>
+    <t>BDW</t>
+  </si>
+  <si>
+    <t>CEC</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>DER</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>PHW</t>
+  </si>
+  <si>
+    <t>DUL</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>NTO</t>
+  </si>
+  <si>
+    <t>PTO</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>AVP</t>
+  </si>
+  <si>
+    <t>Variable Code</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>PCA_Tsoil</t>
+  </si>
+  <si>
+    <t>PCA_Asoil</t>
+  </si>
+  <si>
+    <t>Soil organic carbon stocks</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/6383f240-484e-490f-b88e-526b6b99c025/download/soc_means_3depthsto1m_220901.zip</t>
+  </si>
+  <si>
+    <t>0_30</t>
+  </si>
+  <si>
+    <t>30_60</t>
+  </si>
+  <si>
+    <t>60_100</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/74753daf-d2a4-42bf-9866-d61baf2562d9/download/ph_means_alldepthto2m_220901.zip</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Ref: Gray JM (2023) Digital soil mapping of key soil properties over New South Wales, version 2.0, Technical Report, NSW Department of Planning and Environment, Parramatta.</t>
+  </si>
+  <si>
+    <t>Use this instead of pH (water) as this closely represents the ionic soil solutions typically found in the field, and thus gives more consistent results. (Gray 2023)</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>100_200</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/10e32454-e41b-4de3-8aef-8933f2bae8a3/download/cations_means_alldepthsto2m_220901.zip</t>
+  </si>
+  <si>
+    <t>SOB</t>
+  </si>
+  <si>
+    <t>sum-of-bases</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/a73f8ac0-e0e6-458f-a4d1-3bead824d2ae/download/pbray_means_alldepthsto2m_220901.zip</t>
+  </si>
+  <si>
+    <t>Layers/depth</t>
+  </si>
+  <si>
+    <t>Available Phosphorus (bray)</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/9eb8596b-05ae-473b-9e27-18b637773091/download/bulkdensity_means_alldepthsto30cm_220901.zip</t>
+  </si>
+  <si>
+    <t>https://datasets.seed.nsw.gov.au/dataset/22f358d9-e59f-4b00-8089-99aaa8d0f7d0/resource/154f1ce0-8fbb-460f-98c1-323fea153d26/download/particle_sizes_means_alldepthsto2m_220901.zip</t>
+  </si>
+  <si>
+    <t>Finesand</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>slit</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>Fsand</t>
+  </si>
+  <si>
+    <t>https://esoil.io/TERNLandscapes/Public/Pages/SLGA/GetData-COGSDataStore_SLGA.html</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Farm sustainbility</t>
+  </si>
+  <si>
+    <t>ABS / ABARES</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Private native forest permit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulation (LLS / </t>
+  </si>
+  <si>
+    <t>Cov_Catogory</t>
+  </si>
+  <si>
+    <t>Socioeconomics</t>
+  </si>
+  <si>
+    <t>Employment / unemployment</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Nature Relatedness</t>
+  </si>
+  <si>
+    <t>Household income</t>
+  </si>
+  <si>
+    <t>Political preference</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Land Use</t>
+  </si>
+  <si>
+    <t>Land use type</t>
+  </si>
+  <si>
+    <t>Economic productivity</t>
+  </si>
+  <si>
+    <t>Land value</t>
+  </si>
+  <si>
+    <t>Agricultural productivity</t>
+  </si>
+  <si>
+    <t>Agricultural profit</t>
+  </si>
+  <si>
+    <t>Farm Terms of Trade</t>
+  </si>
+  <si>
+    <t>Farm Sustainability</t>
+  </si>
+  <si>
+    <t>Farm debt</t>
+  </si>
+  <si>
+    <t>Farm Assets</t>
+  </si>
+  <si>
+    <t>Environmental</t>
+  </si>
+  <si>
+    <t>Soil Fertility</t>
+  </si>
+  <si>
+    <t>Water Avalability</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Covariate Code</t>
+  </si>
+  <si>
+    <t>Covariate Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsoil_PC1, Tsoil_PC2 </t>
+  </si>
+  <si>
+    <t>Topography</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Conservation Value</t>
+  </si>
+  <si>
+    <t>Threatened Species / Ecological communities</t>
+  </si>
+  <si>
+    <t>Koala presence /absence</t>
+  </si>
+  <si>
+    <t>Koala habitat quality</t>
+  </si>
+  <si>
+    <t>Regulation</t>
+  </si>
+  <si>
+    <t>Policy uncertainty</t>
+  </si>
+  <si>
+    <t>Mismatch in regulation &amp; enforcement</t>
+  </si>
+  <si>
+    <t>regulatory understanding / Opaque policy</t>
+  </si>
+  <si>
+    <t>Uncertainty and risk tolerance</t>
+  </si>
+  <si>
+    <t>Population Growth</t>
+  </si>
+  <si>
+    <t>Distance to road</t>
+  </si>
+  <si>
+    <t>Distance to urban center</t>
+  </si>
+  <si>
+    <t>Land use intensity</t>
+  </si>
+  <si>
+    <t>Land use constraints</t>
+  </si>
+  <si>
+    <t>Planning Zones</t>
+  </si>
+  <si>
+    <t>Development intensity</t>
+  </si>
+  <si>
+    <t>Social Desirability</t>
+  </si>
+  <si>
+    <t>Cost and benefit of development</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>Habitat values / ecological condition</t>
+  </si>
+  <si>
+    <t>Biodiversity Conservation Act</t>
+  </si>
+  <si>
+    <t>Native Vegetation Act</t>
+  </si>
+  <si>
+    <t>SEPP 44/20</t>
+  </si>
+  <si>
+    <t>EPBC Act</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Local Environment plan</t>
+  </si>
+  <si>
+    <t>Land use regulations</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Not present</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>ABS-2016 Census GCP Statistical Area 1 for NSW</t>
+  </si>
+  <si>
+    <t>ABS?</t>
+  </si>
+  <si>
+    <t>PopDen</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Land tenure</t>
+  </si>
+  <si>
+    <t>https://www.agriculture.gov.au/abares/aclump/land_tenure_2010-11_2015-16</t>
+  </si>
+  <si>
+    <t>ABARES?</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Agri</t>
+  </si>
+  <si>
+    <t>ForTen</t>
+  </si>
+  <si>
+    <t>ForTenType</t>
+  </si>
+  <si>
+    <t>SEED Land use (NSW Landuse 2013)</t>
+  </si>
+  <si>
+    <t>LandUse</t>
+  </si>
+  <si>
+    <t>EDIS - Combined Drought Indicator</t>
+  </si>
+  <si>
+    <t>Infr</t>
+  </si>
+  <si>
+    <t>Fort</t>
+  </si>
+  <si>
+    <t>Property Size</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Calculated from Spatial Units</t>
+  </si>
+  <si>
+    <t>PropVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSW Valuer General database </t>
+  </si>
+  <si>
+    <t>https://urldefense.com/v3/__https:/www.valuergeneral.nsw.gov.au/land_value_summaries/lv.php__;!!NVzLfOphnbDXSw!GGhkHhFrVw0Si36_pgv3lCSudsnOVb8fyG3NZWVR4AOi3FGXPMyiDo59qBEBpUAmMZfYJIvaIXUoSAWlalBA$</t>
+  </si>
+  <si>
+    <t>SoilFert</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>SoilPCA</t>
+  </si>
+  <si>
+    <t>Refer to SoilPCA sheet</t>
+  </si>
+  <si>
+    <t>ForCode</t>
+  </si>
+  <si>
+    <t>Woody</t>
+  </si>
+  <si>
+    <t>Response_variable</t>
+  </si>
+  <si>
+    <t>Use Proxy?</t>
+  </si>
+  <si>
+    <t>ABS? ABARES?</t>
+  </si>
+  <si>
+    <t>EcolCond</t>
   </si>
 </sst>
 </file>
@@ -1321,24 +1818,3785 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AFD73C-5873-0E46-9099-53872177BBC1}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511F1879-4772-4940-A1D9-1CD7B53DD24C}">
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="143" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="163.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J4" t="s">
+        <v>379</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>402</v>
+      </c>
+      <c r="J6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>386</v>
+      </c>
+      <c r="J8" t="s">
+        <v>379</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>377</v>
+      </c>
+      <c r="J9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>377</v>
+      </c>
+      <c r="J10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>386</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>386</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>377</v>
+      </c>
+      <c r="J13" t="s">
+        <v>385</v>
+      </c>
+      <c r="L13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>386</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>386</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" t="s">
+        <v>363</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>386</v>
+      </c>
+      <c r="J21" t="s">
+        <v>390</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>377</v>
+      </c>
+      <c r="J27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>377</v>
+      </c>
+      <c r="J28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" t="s">
+        <v>342</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>402</v>
+      </c>
+      <c r="J29" t="s">
+        <v>404</v>
+      </c>
+      <c r="K29" t="s">
+        <v>403</v>
+      </c>
+      <c r="L29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>402</v>
+      </c>
+      <c r="J30" t="s">
+        <v>404</v>
+      </c>
+      <c r="K30" t="s">
+        <v>403</v>
+      </c>
+      <c r="L30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>386</v>
+      </c>
+      <c r="J31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>386</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>386</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>386</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>386</v>
+      </c>
+      <c r="J35" t="s">
+        <v>392</v>
+      </c>
+      <c r="K35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>386</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C37" t="s">
+        <v>348</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>386</v>
+      </c>
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C42" t="s">
+        <v>354</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" t="s">
+        <v>355</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>353</v>
+      </c>
+      <c r="C44" t="s">
+        <v>356</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" t="s">
+        <v>357</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" t="s">
+        <v>370</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" t="s">
+        <v>372</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>373</v>
+      </c>
+      <c r="C50" t="s">
+        <v>374</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" t="s">
+        <v>366</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>386</v>
+      </c>
+      <c r="J51" t="s">
+        <v>399</v>
+      </c>
+      <c r="L51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" t="s">
+        <v>367</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>396</v>
+      </c>
+      <c r="C53" t="s">
+        <v>395</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L53" xr:uid="{511F1879-4772-4940-A1D9-1CD7B53DD24C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FF454D-47F9-904A-BF22-5D331A89389C}">
+  <dimension ref="A1:A140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="45.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A843DB-AE6D-9F4F-B2AB-2929BE20E320}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F178FA-2F86-0243-B5CE-4BD4F83712A1}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9790E9F-886B-664F-95DF-E48DD5572235}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF371DA-7DA5-0446-8C1E-07E4C7FFD2D9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EA8C64-6848-3447-8CF3-97331B367FAE}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F2D92A-8A92-4662-A12F-F10680C92396}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" t="s">
+        <v>288</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" t="s">
+        <v>296</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" t="s">
+        <v>296</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" t="s">
+        <v>290</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AFD73C-5873-0E46-9099-53872177BBC1}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="1" customWidth="1"/>
+    <col min="6" max="6" width="163.3984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +5616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +5636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +5656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1412,7 +5670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +5680,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1440,7 +5698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +5716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +5734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>243</v>
       </c>
@@ -1494,7 +5752,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1512,7 +5770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1532,7 +5790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>206</v>
       </c>
@@ -1550,7 +5808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>207</v>
       </c>
@@ -1570,7 +5828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1588,7 +5846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1608,7 +5866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1628,7 +5886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +5906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1666,7 +5924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +5942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1700,6 +5958,46 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1716,1295 +6014,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FF454D-47F9-904A-BF22-5D331A89389C}">
-  <dimension ref="A1:A140"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A843DB-AE6D-9F4F-B2AB-2929BE20E320}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F178FA-2F86-0243-B5CE-4BD4F83712A1}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9790E9F-886B-664F-95DF-E48DD5572235}">
-  <dimension ref="A1:C52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF371DA-7DA5-0446-8C1E-07E4C7FFD2D9}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EA8C64-6848-3447-8CF3-97331B367FAE}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/covariate_description.xlsx
+++ b/covariate_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqychun7\Documents\Data\NSW_Deforestation\risk-model\input\covariates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47DBEFA-1722-4568-A049-30DB4564EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED6FC0-04E9-4B3C-B823-1BBD0946AE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="797" xr2:uid="{C97FBC6B-6CE5-764B-8ABB-DBD66B79C4E6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="797" activeTab="2" xr2:uid="{C97FBC6B-6CE5-764B-8ABB-DBD66B79C4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="AllLyr" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllLyr!$A$1:$K$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllLyr!$A$1:$L$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">landuse2017_lut!$A$1:$F$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="954">
   <si>
     <t>VARIABLE_NAME</t>
   </si>
@@ -1962,9 +1962,6 @@
   </si>
   <si>
     <t>Forest tenure / Forest tenure type</t>
-  </si>
-  <si>
-    <t>Non-forest</t>
   </si>
   <si>
     <t>Dimension reduction</t>
@@ -2887,9 +2884,6 @@
     <t>PlanZone</t>
   </si>
   <si>
-    <t>Dombined drought indicator</t>
-  </si>
-  <si>
     <t>fire history (2011-2019)</t>
   </si>
   <si>
@@ -2903,15 +2897,49 @@
   </si>
   <si>
     <t>&lt;Captured in Top 30cm Soil PCA as proxy&gt;</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Not Ready</t>
+  </si>
+  <si>
+    <t>Combined drought indicator</t>
+  </si>
+  <si>
+    <t>NoData</t>
+  </si>
+  <si>
+    <t>Non-forest/NoData</t>
+  </si>
+  <si>
+    <t>Non forest/NoData</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -3015,24 +3043,24 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3042,7 +3070,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3382,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511F1879-4772-4940-A1D9-1CD7B53DD24C}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3435,7 +3464,7 @@
         <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -3443,7 +3472,7 @@
         <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C2" t="s">
         <v>179</v>
@@ -3475,7 +3504,7 @@
         <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -3507,7 +3536,7 @@
         <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C4" t="s">
         <v>216</v>
@@ -3522,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>240</v>
@@ -3536,7 +3565,7 @@
         <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C5" t="s">
         <v>180</v>
@@ -3565,7 +3594,7 @@
         <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C6" t="s">
         <v>181</v>
@@ -3591,7 +3620,7 @@
         <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C7" t="s">
         <v>182</v>
@@ -3652,10 +3681,10 @@
         <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C9" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -3667,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>240</v>
@@ -3684,7 +3713,7 @@
         <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C10" t="s">
         <v>217</v>
@@ -3705,10 +3734,10 @@
         <v>240</v>
       </c>
       <c r="I10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -3716,7 +3745,7 @@
         <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C11" t="s">
         <v>218</v>
@@ -3737,10 +3766,10 @@
         <v>240</v>
       </c>
       <c r="I11" t="s">
+        <v>914</v>
+      </c>
+      <c r="K11" t="s">
         <v>915</v>
-      </c>
-      <c r="K11" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3748,7 +3777,7 @@
         <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C12" t="s">
         <v>238</v>
@@ -3769,10 +3798,10 @@
         <v>240</v>
       </c>
       <c r="I12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K12" t="s">
         <v>239</v>
@@ -3783,7 +3812,7 @@
         <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3801,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>240</v>
+        <v>949</v>
       </c>
       <c r="I13" t="s">
         <v>51</v>
@@ -3821,7 +3850,7 @@
         <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3833,13 +3862,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I14" t="s">
         <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K14" t="s">
         <v>37</v>
@@ -3850,7 +3879,7 @@
         <v>220</v>
       </c>
       <c r="B15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -3880,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3906,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I16" t="s">
         <v>46</v>
@@ -3923,7 +3952,7 @@
         <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C17" t="s">
         <v>221</v>
@@ -3947,7 +3976,7 @@
         <v>260</v>
       </c>
       <c r="J17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K17" t="s">
         <v>259</v>
@@ -3958,7 +3987,7 @@
         <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C18" t="s">
         <v>222</v>
@@ -3981,7 +4010,7 @@
         <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C19" t="s">
         <v>175</v>
@@ -3996,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -4025,13 +4054,13 @@
         <v>240</v>
       </c>
       <c r="I20" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4039,7 +4068,7 @@
         <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C21" t="s">
         <v>219</v>
@@ -4074,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4088,7 +4117,7 @@
         <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C23" t="s">
         <v>189</v>
@@ -4114,7 +4143,7 @@
         <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C24" t="s">
         <v>190</v>
@@ -4135,10 +4164,10 @@
         <v>240</v>
       </c>
       <c r="I24" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -4146,7 +4175,7 @@
         <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C25" t="s">
         <v>191</v>
@@ -4215,10 +4244,10 @@
         <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C28" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D28" t="s">
         <v>43</v>
@@ -4250,7 +4279,7 @@
         <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C29" t="s">
         <v>197</v>
@@ -4413,7 +4442,7 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="D34" t="s">
         <v>42</v>
@@ -4445,10 +4474,10 @@
         <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C35" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
@@ -4477,7 +4506,7 @@
         <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C36" t="s">
         <v>206</v>
@@ -4532,7 +4561,7 @@
         <v>207</v>
       </c>
       <c r="B38" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C38" t="s">
         <v>208</v>
@@ -4555,7 +4584,7 @@
         <v>207</v>
       </c>
       <c r="B39" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C39" t="s">
         <v>209</v>
@@ -4578,7 +4607,7 @@
         <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C40" t="s">
         <v>210</v>
@@ -4681,7 +4710,7 @@
         <v>211</v>
       </c>
       <c r="B45" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C45" t="s">
         <v>227</v>
@@ -4704,7 +4733,7 @@
         <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C46" t="s">
         <v>228</v>
@@ -4727,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C47" t="s">
         <v>229</v>
@@ -4750,7 +4779,7 @@
         <v>211</v>
       </c>
       <c r="B48" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C48" t="s">
         <v>230</v>
@@ -4773,7 +4802,7 @@
         <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C49" t="s">
         <v>232</v>
@@ -4796,7 +4825,7 @@
         <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C50" t="s">
         <v>224</v>
@@ -4825,7 +4854,7 @@
         <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C51" t="s">
         <v>225</v>
@@ -4867,6 +4896,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L52" xr:uid="{511F1879-4772-4940-A1D9-1CD7B53DD24C}"/>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{39DF9F32-8428-4766-AC5D-51590B0AE181}"/>
   </hyperlinks>
@@ -4879,7 +4909,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5595,7 +5625,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{1198159D-4906-AB40-AB93-C622DBFCEE94}"/>
     <hyperlink ref="F14" r:id="rId2" xr:uid="{7230F321-7E44-524D-8E62-DD37EA8BB37B}"/>
@@ -5630,7 +5660,7 @@
         <v>200</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>152</v>
@@ -5641,10 +5671,10 @@
         <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -5652,21 +5682,21 @@
         <v>183</v>
       </c>
       <c r="B3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>871</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C4" t="s">
         <v>874</v>
-      </c>
-      <c r="B4" t="s">
-        <v>873</v>
-      </c>
-      <c r="C4" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
@@ -5674,10 +5704,10 @@
         <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5685,21 +5715,21 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C6" t="s">
         <v>877</v>
-      </c>
-      <c r="C6" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5707,10 +5737,10 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
+        <v>881</v>
+      </c>
+      <c r="C8" t="s">
         <v>882</v>
-      </c>
-      <c r="C8" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
@@ -5718,10 +5748,10 @@
         <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5729,10 +5759,10 @@
         <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5740,7 +5770,7 @@
         <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5748,10 +5778,10 @@
         <v>186</v>
       </c>
       <c r="B12" t="s">
+        <v>886</v>
+      </c>
+      <c r="C12" t="s">
         <v>887</v>
-      </c>
-      <c r="C12" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5759,10 +5789,10 @@
         <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5770,7 +5800,7 @@
         <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
@@ -5778,10 +5808,10 @@
         <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5789,7 +5819,7 @@
         <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5797,7 +5827,7 @@
         <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5805,7 +5835,7 @@
         <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -5813,10 +5843,10 @@
         <v>196</v>
       </c>
       <c r="B19" t="s">
+        <v>891</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>892</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5824,7 +5854,7 @@
         <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5832,10 +5862,10 @@
         <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5843,10 +5873,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C22" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5854,10 +5884,10 @@
         <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5865,10 +5895,10 @@
         <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C24" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5876,10 +5906,10 @@
         <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5887,10 +5917,10 @@
         <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C26" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5898,26 +5928,26 @@
         <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C27" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -5928,7 +5958,7 @@
         <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5936,7 +5966,7 @@
         <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5952,7 +5982,7 @@
         <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5960,7 +5990,7 @@
         <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -5968,7 +5998,7 @@
         <v>248</v>
       </c>
       <c r="C35" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -5978,10 +6008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8562F18E-3813-4BB6-B94D-E938430539A9}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6019,7 +6049,7 @@
         <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C2" t="s">
         <v>221</v>
@@ -6031,7 +6061,7 @@
         <v>613</v>
       </c>
       <c r="F2">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6039,7 +6069,7 @@
         <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C3" t="s">
         <v>221</v>
@@ -6051,7 +6081,7 @@
         <v>603</v>
       </c>
       <c r="F3">
-        <v>2100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6059,7 +6089,7 @@
         <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C4" t="s">
         <v>221</v>
@@ -6071,7 +6101,7 @@
         <v>604</v>
       </c>
       <c r="F4">
-        <v>2200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6079,7 +6109,7 @@
         <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C5" t="s">
         <v>221</v>
@@ -6091,7 +6121,7 @@
         <v>610</v>
       </c>
       <c r="F5">
-        <v>2300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6099,7 +6129,7 @@
         <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C6" t="s">
         <v>221</v>
@@ -6111,7 +6141,7 @@
         <v>607</v>
       </c>
       <c r="F6">
-        <v>2400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6119,7 +6149,7 @@
         <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C7" t="s">
         <v>221</v>
@@ -6131,7 +6161,7 @@
         <v>604</v>
       </c>
       <c r="F7">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6139,7 +6169,7 @@
         <v>220</v>
       </c>
       <c r="B8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C8" t="s">
         <v>221</v>
@@ -6151,7 +6181,7 @@
         <v>611</v>
       </c>
       <c r="F8">
-        <v>2600</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6159,7 +6189,7 @@
         <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C9" t="s">
         <v>221</v>
@@ -6171,7 +6201,7 @@
         <v>602</v>
       </c>
       <c r="F9">
-        <v>2700</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6179,7 +6209,7 @@
         <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C10" t="s">
         <v>221</v>
@@ -6191,7 +6221,7 @@
         <v>606</v>
       </c>
       <c r="F10">
-        <v>2800</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6199,7 +6229,7 @@
         <v>220</v>
       </c>
       <c r="B11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C11" t="s">
         <v>221</v>
@@ -6211,7 +6241,7 @@
         <v>609</v>
       </c>
       <c r="F11">
-        <v>2900</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6219,7 +6249,7 @@
         <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C12" t="s">
         <v>221</v>
@@ -6231,7 +6261,7 @@
         <v>605</v>
       </c>
       <c r="F12">
-        <v>2100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6239,7 +6269,7 @@
         <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C13" t="s">
         <v>221</v>
@@ -6251,7 +6281,7 @@
         <v>608</v>
       </c>
       <c r="F13">
-        <v>2110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6259,7 +6289,7 @@
         <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C14" t="s">
         <v>221</v>
@@ -6291,7 +6321,7 @@
         <v>627</v>
       </c>
       <c r="F15">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6311,7 +6341,7 @@
         <v>628</v>
       </c>
       <c r="F16">
-        <v>3200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6331,7 +6361,7 @@
         <v>629</v>
       </c>
       <c r="F17">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6351,7 +6381,7 @@
         <v>630</v>
       </c>
       <c r="F18">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6371,7 +6401,7 @@
         <v>631</v>
       </c>
       <c r="F19">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6391,7 +6421,7 @@
         <v>632</v>
       </c>
       <c r="F20">
-        <v>3600</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6408,10 +6438,10 @@
         <v>633</v>
       </c>
       <c r="E21" t="s">
-        <v>636</v>
+        <v>952</v>
       </c>
       <c r="F21">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6419,16 +6449,16 @@
         <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E22" t="s">
-        <v>650</v>
+        <v>953</v>
       </c>
       <c r="F22">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6436,16 +6466,16 @@
         <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F23">
-        <v>4100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6453,16 +6483,16 @@
         <v>220</v>
       </c>
       <c r="B24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C24" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F24">
-        <v>4200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6470,16 +6500,16 @@
         <v>220</v>
       </c>
       <c r="B25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E25" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F25">
-        <v>4300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6487,16 +6517,16 @@
         <v>220</v>
       </c>
       <c r="B26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F26">
-        <v>4400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6504,16 +6534,16 @@
         <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C27" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F27">
-        <v>4500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6521,16 +6551,16 @@
         <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F28">
-        <v>4600</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6538,16 +6568,16 @@
         <v>220</v>
       </c>
       <c r="B29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F29">
-        <v>4700</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6555,16 +6585,16 @@
         <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F30">
-        <v>4800</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6572,16 +6602,16 @@
         <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F31">
-        <v>4900</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6589,16 +6619,180 @@
         <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C32" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F32">
-        <v>9999</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>576</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>948</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>576</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" t="s">
+        <v>945</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>576</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" t="s">
+        <v>946</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" t="s">
+        <v>947</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E38" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="F39" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E40" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="F40" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E41" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="F41" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>951</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6613,7 +6807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66910E87-CA6E-415B-AFC2-AAD3114BAA69}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6622,10 +6818,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
+        <v>862</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>863</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6636,7 +6832,7 @@
         <v>-1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6647,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6658,7 +6854,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6680,7 +6876,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6704,7 +6900,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6720,43 +6916,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>648</v>
-      </c>
       <c r="K1" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>679</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -6767,7 +6963,7 @@
         <v>1602951</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>623</v>
@@ -6779,10 +6975,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I2" s="12">
         <v>6</v>
@@ -6791,13 +6987,13 @@
         <v>6</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L2" s="12">
-        <v>4000</v>
-      </c>
-      <c r="M2" s="12">
-        <v>9999</v>
+        <v>0</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -6808,7 +7004,7 @@
         <v>1094</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>623</v>
@@ -6820,11 +7016,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>652</v>
-      </c>
       <c r="I3" s="12">
         <v>1</v>
       </c>
@@ -6832,13 +7028,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L3" s="12">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="M3" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -6849,7 +7045,7 @@
         <v>61061</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>620</v>
@@ -6861,10 +7057,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>651</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>652</v>
       </c>
       <c r="I4" s="12">
         <v>1</v>
@@ -6873,13 +7069,13 @@
         <v>2</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L4" s="12">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="M4" s="12">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -6890,7 +7086,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>625</v>
@@ -6902,10 +7098,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>651</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>652</v>
       </c>
       <c r="I5" s="12">
         <v>1</v>
@@ -6914,13 +7110,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L5" s="12">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="M5" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -6931,7 +7127,7 @@
         <v>4355</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>623</v>
@@ -6943,10 +7139,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>651</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>652</v>
       </c>
       <c r="I6" s="12">
         <v>2</v>
@@ -6955,13 +7151,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L6" s="12">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="M6" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -6972,7 +7168,7 @@
         <v>122979</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>620</v>
@@ -6984,10 +7180,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>651</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>652</v>
       </c>
       <c r="I7" s="12">
         <v>2</v>
@@ -6996,13 +7192,13 @@
         <v>2</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L7" s="12">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="M7" s="12">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -7013,7 +7209,7 @@
         <v>3680</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>625</v>
@@ -7025,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="G8" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>651</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>652</v>
       </c>
       <c r="I8" s="12">
         <v>2</v>
@@ -7037,13 +7233,13 @@
         <v>3</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L8" s="12">
-        <v>4100</v>
+        <v>1</v>
       </c>
       <c r="M8" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -7054,7 +7250,7 @@
         <v>1003</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>624</v>
@@ -7066,25 +7262,25 @@
         <v>10</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H9" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>653</v>
-      </c>
       <c r="L9" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M9" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -7095,7 +7291,7 @@
         <v>140</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>624</v>
@@ -7107,10 +7303,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I10" s="12">
         <v>2</v>
@@ -7119,13 +7315,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L10" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M10" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -7136,7 +7332,7 @@
         <v>7057</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>623</v>
@@ -7148,10 +7344,10 @@
         <v>16</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I11" s="12">
         <v>1</v>
@@ -7160,13 +7356,13 @@
         <v>1</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L11" s="12">
-        <v>4300</v>
+        <v>3</v>
       </c>
       <c r="M11" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -7177,7 +7373,7 @@
         <v>42591</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>624</v>
@@ -7189,10 +7385,10 @@
         <v>17</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I12" s="12">
         <v>1</v>
@@ -7201,13 +7397,13 @@
         <v>2</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L12" s="12">
-        <v>4300</v>
+        <v>3</v>
       </c>
       <c r="M12" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -7218,7 +7414,7 @@
         <v>4364</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>625</v>
@@ -7230,10 +7426,10 @@
         <v>19</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I13" s="12">
         <v>2</v>
@@ -7242,13 +7438,13 @@
         <v>1</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L13" s="12">
-        <v>4300</v>
+        <v>3</v>
       </c>
       <c r="M13" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -7259,7 +7455,7 @@
         <v>86041</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>625</v>
@@ -7271,10 +7467,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I14" s="12">
         <v>2</v>
@@ -7283,13 +7479,13 @@
         <v>2</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L14" s="12">
-        <v>4300</v>
+        <v>3</v>
       </c>
       <c r="M14" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -7300,7 +7496,7 @@
         <v>597</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>624</v>
@@ -7312,10 +7508,10 @@
         <v>21</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I15" s="12">
         <v>2</v>
@@ -7324,13 +7520,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L15" s="12">
-        <v>4300</v>
+        <v>3</v>
       </c>
       <c r="M15" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -7341,7 +7537,7 @@
         <v>10923</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>625</v>
@@ -7353,10 +7549,10 @@
         <v>25</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I16" s="12">
         <v>1</v>
@@ -7365,13 +7561,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L16" s="12">
-        <v>4400</v>
+        <v>4</v>
       </c>
       <c r="M16" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -7382,7 +7578,7 @@
         <v>3599</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>625</v>
@@ -7394,10 +7590,10 @@
         <v>26</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I17" s="12">
         <v>2</v>
@@ -7406,13 +7602,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L17" s="12">
-        <v>4400</v>
+        <v>4</v>
       </c>
       <c r="M17" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -7423,7 +7619,7 @@
         <v>48027</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>625</v>
@@ -7435,10 +7631,10 @@
         <v>28</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I18" s="12">
         <v>1</v>
@@ -7447,13 +7643,13 @@
         <v>2</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L18" s="12">
-        <v>4400</v>
+        <v>4</v>
       </c>
       <c r="M18" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -7464,7 +7660,7 @@
         <v>1582</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>624</v>
@@ -7476,10 +7672,10 @@
         <v>29</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I19" s="12">
         <v>2</v>
@@ -7488,13 +7684,13 @@
         <v>2</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L19" s="12">
-        <v>4400</v>
+        <v>4</v>
       </c>
       <c r="M19" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -7505,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>625</v>
@@ -7517,10 +7713,10 @@
         <v>30</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I20" s="12">
         <v>3</v>
@@ -7529,13 +7725,13 @@
         <v>2</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L20" s="12">
-        <v>4400</v>
+        <v>4</v>
       </c>
       <c r="M20" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -7546,7 +7742,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>620</v>
@@ -7558,10 +7754,10 @@
         <v>31</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I21" s="12">
         <v>1</v>
@@ -7570,13 +7766,13 @@
         <v>3</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L21" s="12">
-        <v>4400</v>
+        <v>4</v>
       </c>
       <c r="M21" s="12">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -7587,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>625</v>
@@ -7599,10 +7795,10 @@
         <v>32</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I22" s="12">
         <v>2</v>
@@ -7611,13 +7807,13 @@
         <v>3</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L22" s="12">
-        <v>4400</v>
+        <v>4</v>
       </c>
       <c r="M22" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -7628,7 +7824,7 @@
         <v>7017</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>622</v>
@@ -7640,10 +7836,10 @@
         <v>34</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I23" s="12">
         <v>1</v>
@@ -7652,13 +7848,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L23" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M23" s="12">
-        <v>3200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -7669,7 +7865,7 @@
         <v>65951</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>625</v>
@@ -7681,10 +7877,10 @@
         <v>35</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I24" s="12">
         <v>1</v>
@@ -7693,13 +7889,13 @@
         <v>2</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L24" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M24" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -7710,7 +7906,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>625</v>
@@ -7722,10 +7918,10 @@
         <v>36</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I25" s="12">
         <v>1</v>
@@ -7734,13 +7930,13 @@
         <v>3</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L25" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M25" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -7751,7 +7947,7 @@
         <v>3160</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>625</v>
@@ -7763,10 +7959,10 @@
         <v>37</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I26" s="12">
         <v>2</v>
@@ -7775,13 +7971,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L26" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M26" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -7792,7 +7988,7 @@
         <v>1338</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>624</v>
@@ -7804,10 +8000,10 @@
         <v>38</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I27" s="12">
         <v>2</v>
@@ -7816,13 +8012,13 @@
         <v>2</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L27" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M27" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -7833,7 +8029,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>625</v>
@@ -7845,10 +8041,10 @@
         <v>39</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I28" s="12">
         <v>2</v>
@@ -7857,13 +8053,13 @@
         <v>3</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L28" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M28" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -7874,7 +8070,7 @@
         <v>283521</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>620</v>
@@ -7886,10 +8082,10 @@
         <v>40</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I29" s="12">
         <v>1</v>
@@ -7898,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L29" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M29" s="12">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -7915,7 +8111,7 @@
         <v>1219562</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>620</v>
@@ -7927,10 +8123,10 @@
         <v>41</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I30" s="12">
         <v>1</v>
@@ -7939,13 +8135,13 @@
         <v>2</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L30" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M30" s="12">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -7956,7 +8152,7 @@
         <v>3088</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>624</v>
@@ -7968,10 +8164,10 @@
         <v>42</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I31" s="12">
         <v>1</v>
@@ -7980,13 +8176,13 @@
         <v>3</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L31" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M31" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -7997,7 +8193,7 @@
         <v>39476</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>623</v>
@@ -8009,10 +8205,10 @@
         <v>43</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I32" s="12">
         <v>2</v>
@@ -8021,13 +8217,13 @@
         <v>1</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L32" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M32" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -8038,7 +8234,7 @@
         <v>102561</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>620</v>
@@ -8050,10 +8246,10 @@
         <v>44</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I33" s="12">
         <v>2</v>
@@ -8062,13 +8258,13 @@
         <v>2</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L33" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M33" s="12">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -8079,7 +8275,7 @@
         <v>995915</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>625</v>
@@ -8091,10 +8287,10 @@
         <v>45</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I34" s="12">
         <v>2</v>
@@ -8103,13 +8299,13 @@
         <v>3</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L34" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M34" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -8120,7 +8316,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>623</v>
@@ -8132,10 +8328,10 @@
         <v>46</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I35" s="12">
         <v>3</v>
@@ -8144,13 +8340,13 @@
         <v>1</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L35" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M35" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -8161,7 +8357,7 @@
         <v>11589</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>625</v>
@@ -8173,10 +8369,10 @@
         <v>47</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I36" s="12">
         <v>3</v>
@@ -8185,13 +8381,13 @@
         <v>2</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L36" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M36" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -8202,7 +8398,7 @@
         <v>5258</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>623</v>
@@ -8214,10 +8410,10 @@
         <v>48</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I37" s="12">
         <v>3</v>
@@ -8226,13 +8422,13 @@
         <v>3</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L37" s="12">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M37" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -8243,7 +8439,7 @@
         <v>758</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>623</v>
@@ -8255,10 +8451,10 @@
         <v>52</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I38" s="12">
         <v>2</v>
@@ -8267,13 +8463,13 @@
         <v>1</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L38" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M38" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -8284,7 +8480,7 @@
         <v>125</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>622</v>
@@ -8296,10 +8492,10 @@
         <v>55</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I39" s="12">
         <v>3</v>
@@ -8308,13 +8504,13 @@
         <v>1</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L39" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M39" s="12">
-        <v>3200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -8325,7 +8521,7 @@
         <v>892</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>625</v>
@@ -8337,10 +8533,10 @@
         <v>58</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I40" s="12">
         <v>1</v>
@@ -8349,13 +8545,13 @@
         <v>1</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L40" s="12">
-        <v>4600</v>
+        <v>6</v>
       </c>
       <c r="M40" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -8366,7 +8562,7 @@
         <v>1515</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>625</v>
@@ -8378,10 +8574,10 @@
         <v>59</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I41" s="12">
         <v>2</v>
@@ -8390,13 +8586,13 @@
         <v>1</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L41" s="12">
-        <v>4600</v>
+        <v>6</v>
       </c>
       <c r="M41" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -8407,7 +8603,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>623</v>
@@ -8419,10 +8615,10 @@
         <v>60</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I42" s="12">
         <v>3</v>
@@ -8431,13 +8627,13 @@
         <v>1</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L42" s="12">
-        <v>4600</v>
+        <v>6</v>
       </c>
       <c r="M42" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -8448,7 +8644,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>624</v>
@@ -8460,10 +8656,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I43" s="12">
         <v>2</v>
@@ -8472,13 +8668,13 @@
         <v>2</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L43" s="12">
-        <v>4600</v>
+        <v>6</v>
       </c>
       <c r="M43" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -8489,7 +8685,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>624</v>
@@ -8501,10 +8697,10 @@
         <v>63</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I44" s="12">
         <v>3</v>
@@ -8513,13 +8709,13 @@
         <v>2</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L44" s="12">
-        <v>4600</v>
+        <v>6</v>
       </c>
       <c r="M44" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -8530,7 +8726,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>625</v>
@@ -8542,10 +8738,10 @@
         <v>64</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I45" s="12">
         <v>1</v>
@@ -8554,13 +8750,13 @@
         <v>1</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L45" s="12">
-        <v>4700</v>
+        <v>7</v>
       </c>
       <c r="M45" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -8571,7 +8767,7 @@
         <v>108</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>623</v>
@@ -8583,10 +8779,10 @@
         <v>65</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I46" s="12">
         <v>2</v>
@@ -8595,13 +8791,13 @@
         <v>1</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L46" s="12">
-        <v>4700</v>
+        <v>7</v>
       </c>
       <c r="M46" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -8612,7 +8808,7 @@
         <v>2270</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>624</v>
@@ -8624,10 +8820,10 @@
         <v>67</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I47" s="12">
         <v>1</v>
@@ -8636,13 +8832,13 @@
         <v>2</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L47" s="12">
-        <v>4700</v>
+        <v>7</v>
       </c>
       <c r="M47" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -8653,7 +8849,7 @@
         <v>1768</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>624</v>
@@ -8665,10 +8861,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I48" s="12">
         <v>2</v>
@@ -8677,13 +8873,13 @@
         <v>2</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L48" s="12">
-        <v>4700</v>
+        <v>7</v>
       </c>
       <c r="M48" s="12">
-        <v>3400</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -8694,7 +8890,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>623</v>
@@ -8706,10 +8902,10 @@
         <v>76</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I49" s="12">
         <v>1</v>
@@ -8718,13 +8914,13 @@
         <v>2</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L49" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M49" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -8735,7 +8931,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>622</v>
@@ -8747,10 +8943,10 @@
         <v>77</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I50" s="12">
         <v>2</v>
@@ -8759,13 +8955,13 @@
         <v>2</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L50" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M50" s="12">
-        <v>3200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -8776,7 +8972,7 @@
         <v>5368</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>620</v>
@@ -8788,25 +8984,25 @@
         <v>82</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H51" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="I51" s="12">
+        <v>1</v>
+      </c>
+      <c r="J51" s="12">
+        <v>1</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="I51" s="12">
-        <v>1</v>
-      </c>
-      <c r="J51" s="12">
-        <v>1</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>653</v>
-      </c>
       <c r="L51" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M51" s="12">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -8817,7 +9013,7 @@
         <v>7869</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>625</v>
@@ -8829,10 +9025,10 @@
         <v>83</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I52" s="12">
         <v>2</v>
@@ -8841,13 +9037,13 @@
         <v>1</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L52" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M52" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -8858,7 +9054,7 @@
         <v>2361</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>625</v>
@@ -8870,10 +9066,10 @@
         <v>84</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I53" s="12">
         <v>3</v>
@@ -8882,13 +9078,13 @@
         <v>1</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L53" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M53" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -8899,7 +9095,7 @@
         <v>21294</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>625</v>
@@ -8911,10 +9107,10 @@
         <v>85</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I54" s="12">
         <v>1</v>
@@ -8923,13 +9119,13 @@
         <v>2</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L54" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M54" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -8940,7 +9136,7 @@
         <v>2597</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>620</v>
@@ -8952,10 +9148,10 @@
         <v>86</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I55" s="12">
         <v>2</v>
@@ -8964,13 +9160,13 @@
         <v>2</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L55" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M55" s="12">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -8981,7 +9177,7 @@
         <v>48525</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>625</v>
@@ -8993,10 +9189,10 @@
         <v>91</v>
       </c>
       <c r="G56" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>669</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>670</v>
       </c>
       <c r="I56" s="12">
         <v>4</v>
@@ -9005,13 +9201,13 @@
         <v>4</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L56" s="12">
-        <v>4800</v>
+        <v>8</v>
       </c>
       <c r="M56" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -9022,7 +9218,7 @@
         <v>216526</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>622</v>
@@ -9034,10 +9230,10 @@
         <v>92</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I57" s="12">
         <v>4</v>
@@ -9046,13 +9242,13 @@
         <v>4</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L57" s="12">
-        <v>4800</v>
+        <v>8</v>
       </c>
       <c r="M57" s="12">
-        <v>3200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -9063,7 +9259,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>625</v>
@@ -9075,10 +9271,10 @@
         <v>93</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I58" s="12">
         <v>4</v>
@@ -9087,13 +9283,13 @@
         <v>4</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L58" s="12">
-        <v>4800</v>
+        <v>8</v>
       </c>
       <c r="M58" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -9104,7 +9300,7 @@
         <v>3179</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>625</v>
@@ -9116,10 +9312,10 @@
         <v>95</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I59" s="12">
         <v>2</v>
@@ -9128,13 +9324,13 @@
         <v>1</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L59" s="12">
-        <v>4900</v>
+        <v>9</v>
       </c>
       <c r="M59" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -9145,7 +9341,7 @@
         <v>61800</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>625</v>
@@ -9157,10 +9353,10 @@
         <v>97</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I60" s="12">
         <v>2</v>
@@ -9169,13 +9365,13 @@
         <v>2</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L60" s="12">
-        <v>4900</v>
+        <v>9</v>
       </c>
       <c r="M60" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -9186,7 +9382,7 @@
         <v>278453</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>623</v>
@@ -9198,10 +9394,10 @@
         <v>98</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I61" s="12">
         <v>3</v>
@@ -9210,13 +9406,13 @@
         <v>2</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L61" s="12">
-        <v>4900</v>
+        <v>9</v>
       </c>
       <c r="M61" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -9227,7 +9423,7 @@
         <v>1436</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>623</v>
@@ -9239,10 +9435,10 @@
         <v>99</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I62" s="12">
         <v>2</v>
@@ -9251,13 +9447,13 @@
         <v>3</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L62" s="12">
-        <v>4900</v>
+        <v>9</v>
       </c>
       <c r="M62" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -9268,7 +9464,7 @@
         <v>1835</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>625</v>
@@ -9280,10 +9476,10 @@
         <v>100</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I63" s="12">
         <v>3</v>
@@ -9292,13 +9488,13 @@
         <v>3</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L63" s="12">
-        <v>4900</v>
+        <v>9</v>
       </c>
       <c r="M63" s="12">
-        <v>3500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -9309,7 +9505,7 @@
         <v>44598</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>620</v>
@@ -9321,10 +9517,10 @@
         <v>101</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I64" s="12">
         <v>5</v>
@@ -9333,13 +9529,13 @@
         <v>5</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L64" s="12">
-        <v>4200</v>
+        <v>2</v>
       </c>
       <c r="M64" s="12">
-        <v>3100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -9350,7 +9546,7 @@
         <v>166</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>623</v>
@@ -9362,10 +9558,10 @@
         <v>102</v>
       </c>
       <c r="G65" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>674</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>675</v>
       </c>
       <c r="I65" s="12">
         <v>5</v>
@@ -9374,13 +9570,13 @@
         <v>5</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L65" s="12">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="M65" s="12">
-        <v>3300</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9411,7 +9607,7 @@
         <v>9999</v>
       </c>
       <c r="B2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9511,19 +9707,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>687</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9534,13 +9730,13 @@
         <v>110</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D2" s="12">
         <v>111</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F2" s="12">
         <v>0</v>
@@ -9554,13 +9750,13 @@
         <v>110</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D3" s="12">
         <v>113</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F3" s="12">
         <v>0</v>
@@ -9574,13 +9770,13 @@
         <v>110</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D4" s="12">
         <v>117</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -9594,13 +9790,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D5" s="12">
         <v>120</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F5" s="12">
         <v>0</v>
@@ -9614,13 +9810,13 @@
         <v>120</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D6" s="12">
         <v>121</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F6" s="12">
         <v>0</v>
@@ -9634,13 +9830,13 @@
         <v>120</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D7" s="12">
         <v>122</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
@@ -9654,13 +9850,13 @@
         <v>120</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D8" s="12">
         <v>124</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
@@ -9674,13 +9870,13 @@
         <v>130</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D9" s="12">
         <v>130</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F9" s="12">
         <v>0</v>
@@ -9694,13 +9890,13 @@
         <v>130</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D10" s="12">
         <v>131</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F10" s="12">
         <v>0</v>
@@ -9714,13 +9910,13 @@
         <v>130</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D11" s="12">
         <v>132</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F11" s="12">
         <v>0</v>
@@ -9734,13 +9930,13 @@
         <v>130</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D12" s="12">
         <v>133</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F12" s="12">
         <v>0</v>
@@ -9754,13 +9950,13 @@
         <v>130</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D13" s="12">
         <v>134</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F13" s="12">
         <v>0</v>
@@ -9774,13 +9970,13 @@
         <v>210</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D14" s="12">
         <v>210</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -9794,13 +9990,13 @@
         <v>220</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D15" s="12">
         <v>220</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F15" s="12">
         <v>1</v>
@@ -9814,13 +10010,13 @@
         <v>310</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D16" s="12">
         <v>310</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
@@ -9834,13 +10030,13 @@
         <v>310</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D17" s="12">
         <v>311</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F17" s="12">
         <v>1</v>
@@ -9854,13 +10050,13 @@
         <v>310</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D18" s="12">
         <v>312</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F18" s="12">
         <v>1</v>
@@ -9874,13 +10070,13 @@
         <v>310</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D19" s="12">
         <v>313</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F19" s="12">
         <v>1</v>
@@ -9894,13 +10090,13 @@
         <v>310</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D20" s="12">
         <v>314</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F20" s="12">
         <v>1</v>
@@ -9914,13 +10110,13 @@
         <v>320</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D21" s="12">
         <v>320</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F21" s="12">
         <v>1</v>
@@ -9934,13 +10130,13 @@
         <v>320</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D22" s="12">
         <v>321</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F22" s="12">
         <v>1</v>
@@ -9954,13 +10150,13 @@
         <v>320</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D23" s="12">
         <v>322</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F23" s="12">
         <v>1</v>
@@ -9974,13 +10170,13 @@
         <v>320</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D24" s="12">
         <v>323</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F24" s="12">
         <v>1</v>
@@ -9994,13 +10190,13 @@
         <v>320</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D25" s="12">
         <v>325</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F25" s="12">
         <v>1</v>
@@ -10014,13 +10210,13 @@
         <v>330</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D26" s="12">
         <v>330</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F26" s="12">
         <v>1</v>
@@ -10034,13 +10230,13 @@
         <v>330</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D27" s="12">
         <v>331</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F27" s="12">
         <v>1</v>
@@ -10054,13 +10250,13 @@
         <v>330</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D28" s="12">
         <v>332</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F28" s="12">
         <v>1</v>
@@ -10074,13 +10270,13 @@
         <v>330</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D29" s="12">
         <v>333</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F29" s="12">
         <v>1</v>
@@ -10094,13 +10290,13 @@
         <v>330</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D30" s="12">
         <v>334</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F30" s="12">
         <v>1</v>
@@ -10114,13 +10310,13 @@
         <v>330</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D31" s="12">
         <v>335</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F31" s="12">
         <v>1</v>
@@ -10134,13 +10330,13 @@
         <v>330</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D32" s="12">
         <v>336</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F32" s="12">
         <v>1</v>
@@ -10154,13 +10350,13 @@
         <v>330</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D33" s="12">
         <v>338</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F33" s="12">
         <v>1</v>
@@ -10174,13 +10370,13 @@
         <v>340</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D34" s="12">
         <v>340</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F34" s="12">
         <v>1</v>
@@ -10194,13 +10390,13 @@
         <v>340</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D35" s="12">
         <v>341</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F35" s="12">
         <v>1</v>
@@ -10214,13 +10410,13 @@
         <v>340</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D36" s="12">
         <v>342</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F36" s="12">
         <v>1</v>
@@ -10234,13 +10430,13 @@
         <v>340</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D37" s="12">
         <v>343</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F37" s="12">
         <v>1</v>
@@ -10254,13 +10450,13 @@
         <v>340</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D38" s="12">
         <v>344</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F38" s="12">
         <v>1</v>
@@ -10274,13 +10470,13 @@
         <v>340</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D39" s="12">
         <v>345</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F39" s="12">
         <v>1</v>
@@ -10294,13 +10490,13 @@
         <v>340</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D40" s="12">
         <v>346</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F40" s="12">
         <v>1</v>
@@ -10314,13 +10510,13 @@
         <v>340</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D41" s="12">
         <v>347</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F41" s="12">
         <v>1</v>
@@ -10334,13 +10530,13 @@
         <v>340</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D42" s="12">
         <v>348</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F42" s="12">
         <v>1</v>
@@ -10354,13 +10550,13 @@
         <v>340</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D43" s="12">
         <v>349</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F43" s="12">
         <v>1</v>
@@ -10374,13 +10570,13 @@
         <v>350</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D44" s="12">
         <v>350</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F44" s="12">
         <v>1</v>
@@ -10394,13 +10590,13 @@
         <v>350</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D45" s="12">
         <v>352</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F45" s="12">
         <v>1</v>
@@ -10414,13 +10610,13 @@
         <v>350</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D46" s="12">
         <v>353</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F46" s="12">
         <v>1</v>
@@ -10434,13 +10630,13 @@
         <v>360</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D47" s="12">
         <v>360</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F47" s="12">
         <v>1</v>
@@ -10454,13 +10650,13 @@
         <v>360</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D48" s="12">
         <v>361</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F48" s="12">
         <v>1</v>
@@ -10474,13 +10670,13 @@
         <v>360</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D49" s="12">
         <v>362</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F49" s="12">
         <v>1</v>
@@ -10494,13 +10690,13 @@
         <v>360</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D50" s="12">
         <v>363</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F50" s="12">
         <v>1</v>
@@ -10514,13 +10710,13 @@
         <v>360</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D51" s="12">
         <v>364</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F51" s="12">
         <v>1</v>
@@ -10534,13 +10730,13 @@
         <v>360</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D52" s="12">
         <v>365</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F52" s="12">
         <v>1</v>
@@ -10554,13 +10750,13 @@
         <v>410</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D53" s="12">
         <v>410</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F53" s="12">
         <v>1</v>
@@ -10574,13 +10770,13 @@
         <v>410</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D54" s="12">
         <v>411</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F54" s="12">
         <v>1</v>
@@ -10594,13 +10790,13 @@
         <v>410</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D55" s="12">
         <v>413</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F55" s="12">
         <v>1</v>
@@ -10614,13 +10810,13 @@
         <v>410</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D56" s="12">
         <v>414</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F56" s="12">
         <v>1</v>
@@ -10634,13 +10830,13 @@
         <v>420</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D57" s="12">
         <v>420</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F57" s="12">
         <v>1</v>
@@ -10654,13 +10850,13 @@
         <v>420</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D58" s="12">
         <v>421</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F58" s="12">
         <v>1</v>
@@ -10674,13 +10870,13 @@
         <v>420</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D59" s="12">
         <v>422</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F59" s="12">
         <v>1</v>
@@ -10694,13 +10890,13 @@
         <v>420</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D60" s="12">
         <v>423</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F60" s="12">
         <v>1</v>
@@ -10714,13 +10910,13 @@
         <v>420</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D61" s="12">
         <v>424</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F61" s="12">
         <v>1</v>
@@ -10734,13 +10930,13 @@
         <v>430</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D62" s="12">
         <v>430</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F62" s="12">
         <v>1</v>
@@ -10754,13 +10950,13 @@
         <v>430</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D63" s="12">
         <v>431</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F63" s="12">
         <v>1</v>
@@ -10774,13 +10970,13 @@
         <v>430</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D64" s="12">
         <v>433</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F64" s="12">
         <v>1</v>
@@ -10794,13 +10990,13 @@
         <v>430</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D65" s="12">
         <v>434</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F65" s="12">
         <v>1</v>
@@ -10814,13 +11010,13 @@
         <v>430</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D66" s="12">
         <v>436</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F66" s="12">
         <v>1</v>
@@ -10834,13 +11030,13 @@
         <v>430</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D67" s="12">
         <v>438</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F67" s="12">
         <v>1</v>
@@ -10854,13 +11050,13 @@
         <v>430</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D68" s="12">
         <v>439</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F68" s="12">
         <v>1</v>
@@ -10874,13 +11070,13 @@
         <v>440</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D69" s="12">
         <v>440</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F69" s="12">
         <v>1</v>
@@ -10894,13 +11090,13 @@
         <v>440</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D70" s="12">
         <v>441</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F70" s="12">
         <v>1</v>
@@ -10914,13 +11110,13 @@
         <v>440</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D71" s="12">
         <v>442</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F71" s="12">
         <v>1</v>
@@ -10934,13 +11130,13 @@
         <v>440</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D72" s="12">
         <v>443</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F72" s="12">
         <v>1</v>
@@ -10954,13 +11150,13 @@
         <v>440</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D73" s="12">
         <v>444</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F73" s="12">
         <v>1</v>
@@ -10974,13 +11170,13 @@
         <v>440</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D74" s="12">
         <v>445</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F74" s="12">
         <v>1</v>
@@ -10994,13 +11190,13 @@
         <v>440</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D75" s="12">
         <v>446</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F75" s="12">
         <v>1</v>
@@ -11014,13 +11210,13 @@
         <v>440</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D76" s="12">
         <v>447</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F76" s="12">
         <v>1</v>
@@ -11034,13 +11230,13 @@
         <v>440</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D77" s="12">
         <v>448</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F77" s="12">
         <v>1</v>
@@ -11054,13 +11250,13 @@
         <v>440</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D78" s="12">
         <v>449</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F78" s="12">
         <v>1</v>
@@ -11074,13 +11270,13 @@
         <v>450</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D79" s="12">
         <v>450</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F79" s="12">
         <v>1</v>
@@ -11094,13 +11290,13 @@
         <v>450</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D80" s="12">
         <v>451</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F80" s="12">
         <v>1</v>
@@ -11114,13 +11310,13 @@
         <v>450</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D81" s="12">
         <v>452</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F81" s="12">
         <v>1</v>
@@ -11134,13 +11330,13 @@
         <v>450</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D82" s="12">
         <v>453</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F82" s="12">
         <v>1</v>
@@ -11154,13 +11350,13 @@
         <v>450</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D83" s="12">
         <v>454</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F83" s="12">
         <v>1</v>
@@ -11174,13 +11370,13 @@
         <v>460</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D84" s="12">
         <v>460</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F84" s="12">
         <v>1</v>
@@ -11194,13 +11390,13 @@
         <v>460</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D85" s="12">
         <v>462</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F85" s="12">
         <v>1</v>
@@ -11214,13 +11410,13 @@
         <v>460</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D86" s="12">
         <v>463</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F86" s="12">
         <v>1</v>
@@ -11234,13 +11430,13 @@
         <v>460</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D87" s="12">
         <v>464</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F87" s="12">
         <v>1</v>
@@ -11254,13 +11450,13 @@
         <v>460</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D88" s="12">
         <v>465</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F88" s="12">
         <v>1</v>
@@ -11274,13 +11470,13 @@
         <v>510</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D89" s="12">
         <v>510</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F89" s="12">
         <v>0</v>
@@ -11294,13 +11490,13 @@
         <v>510</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D90" s="12">
         <v>511</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F90" s="12">
         <v>0</v>
@@ -11314,13 +11510,13 @@
         <v>510</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D91" s="12">
         <v>512</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F91" s="12">
         <v>0</v>
@@ -11334,13 +11530,13 @@
         <v>510</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D92" s="12">
         <v>513</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F92" s="12">
         <v>0</v>
@@ -11354,13 +11550,13 @@
         <v>510</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D93" s="12">
         <v>514</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F93" s="12">
         <v>0</v>
@@ -11374,13 +11570,13 @@
         <v>510</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D94" s="12">
         <v>515</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F94" s="12">
         <v>0</v>
@@ -11394,13 +11590,13 @@
         <v>520</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D95" s="12">
         <v>520</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F95" s="12">
         <v>0</v>
@@ -11414,13 +11610,13 @@
         <v>520</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D96" s="12">
         <v>521</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F96" s="12">
         <v>0</v>
@@ -11434,13 +11630,13 @@
         <v>520</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D97" s="12">
         <v>522</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F97" s="12">
         <v>0</v>
@@ -11454,13 +11650,13 @@
         <v>520</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D98" s="12">
         <v>523</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F98" s="12">
         <v>0</v>
@@ -11474,13 +11670,13 @@
         <v>520</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D99" s="12">
         <v>524</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F99" s="12">
         <v>0</v>
@@ -11494,13 +11690,13 @@
         <v>520</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D100" s="12">
         <v>525</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F100" s="12">
         <v>0</v>
@@ -11514,13 +11710,13 @@
         <v>520</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D101" s="12">
         <v>526</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F101" s="12">
         <v>0</v>
@@ -11534,13 +11730,13 @@
         <v>520</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D102" s="12">
         <v>527</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F102" s="12">
         <v>0</v>
@@ -11554,13 +11750,13 @@
         <v>520</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D103" s="12">
         <v>528</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F103" s="12">
         <v>0</v>
@@ -11574,13 +11770,13 @@
         <v>530</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D104" s="12">
         <v>530</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F104" s="12">
         <v>0</v>
@@ -11594,13 +11790,13 @@
         <v>530</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D105" s="12">
         <v>531</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F105" s="12">
         <v>0</v>
@@ -11614,13 +11810,13 @@
         <v>530</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D106" s="12">
         <v>532</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F106" s="12">
         <v>0</v>
@@ -11634,13 +11830,13 @@
         <v>530</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D107" s="12">
         <v>533</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F107" s="12">
         <v>0</v>
@@ -11654,13 +11850,13 @@
         <v>530</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D108" s="12">
         <v>534</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F108" s="12">
         <v>0</v>
@@ -11674,13 +11870,13 @@
         <v>530</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D109" s="12">
         <v>535</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F109" s="12">
         <v>0</v>
@@ -11694,13 +11890,13 @@
         <v>530</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D110" s="12">
         <v>536</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F110" s="12">
         <v>0</v>
@@ -11714,13 +11910,13 @@
         <v>530</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D111" s="12">
         <v>537</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F111" s="12">
         <v>0</v>
@@ -11734,13 +11930,13 @@
         <v>530</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D112" s="12">
         <v>538</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F112" s="12">
         <v>0</v>
@@ -11754,13 +11950,13 @@
         <v>540</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D113" s="12">
         <v>540</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F113" s="12">
         <v>0</v>
@@ -11774,13 +11970,13 @@
         <v>540</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D114" s="12">
         <v>541</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F114" s="12">
         <v>0</v>
@@ -11794,13 +11990,13 @@
         <v>540</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D115" s="12">
         <v>542</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F115" s="12">
         <v>0</v>
@@ -11814,13 +12010,13 @@
         <v>540</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D116" s="12">
         <v>543</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F116" s="12">
         <v>0</v>
@@ -11834,13 +12030,13 @@
         <v>540</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D117" s="12">
         <v>544</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F117" s="12">
         <v>0</v>
@@ -11854,13 +12050,13 @@
         <v>540</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D118" s="12">
         <v>545</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F118" s="12">
         <v>0</v>
@@ -11874,13 +12070,13 @@
         <v>550</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D119" s="12">
         <v>550</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F119" s="12">
         <v>0</v>
@@ -11894,13 +12090,13 @@
         <v>550</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D120" s="12">
         <v>551</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F120" s="12">
         <v>0</v>
@@ -11914,13 +12110,13 @@
         <v>550</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D121" s="12">
         <v>552</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F121" s="12">
         <v>0</v>
@@ -11934,13 +12130,13 @@
         <v>550</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D122" s="12">
         <v>553</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F122" s="12">
         <v>0</v>
@@ -11954,13 +12150,13 @@
         <v>550</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D123" s="12">
         <v>554</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F123" s="12">
         <v>0</v>
@@ -11974,13 +12170,13 @@
         <v>550</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D124" s="12">
         <v>555</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F124" s="12">
         <v>0</v>
@@ -11994,13 +12190,13 @@
         <v>560</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D125" s="12">
         <v>560</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F125" s="12">
         <v>0</v>
@@ -12014,13 +12210,13 @@
         <v>560</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D126" s="12">
         <v>561</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F126" s="12">
         <v>0</v>
@@ -12034,13 +12230,13 @@
         <v>560</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D127" s="12">
         <v>562</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F127" s="12">
         <v>0</v>
@@ -12054,13 +12250,13 @@
         <v>560</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D128" s="12">
         <v>563</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F128" s="12">
         <v>0</v>
@@ -12074,13 +12270,13 @@
         <v>560</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D129" s="12">
         <v>564</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F129" s="12">
         <v>0</v>
@@ -12094,13 +12290,13 @@
         <v>560</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D130" s="12">
         <v>565</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F130" s="12">
         <v>0</v>
@@ -12114,13 +12310,13 @@
         <v>560</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D131" s="12">
         <v>566</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F131" s="12">
         <v>0</v>
@@ -12134,13 +12330,13 @@
         <v>560</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D132" s="12">
         <v>567</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F132" s="12">
         <v>0</v>
@@ -12154,13 +12350,13 @@
         <v>570</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D133" s="12">
         <v>570</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F133" s="12">
         <v>0</v>
@@ -12174,13 +12370,13 @@
         <v>570</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D134" s="12">
         <v>571</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F134" s="12">
         <v>0</v>
@@ -12194,13 +12390,13 @@
         <v>570</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D135" s="12">
         <v>572</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F135" s="12">
         <v>0</v>
@@ -12214,13 +12410,13 @@
         <v>570</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D136" s="12">
         <v>573</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F136" s="12">
         <v>0</v>
@@ -12234,13 +12430,13 @@
         <v>570</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D137" s="12">
         <v>574</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F137" s="12">
         <v>0</v>
@@ -12254,13 +12450,13 @@
         <v>570</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D138" s="12">
         <v>575</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F138" s="12">
         <v>0</v>
@@ -12274,13 +12470,13 @@
         <v>580</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D139" s="12">
         <v>580</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F139" s="12">
         <v>0</v>
@@ -12294,13 +12490,13 @@
         <v>580</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D140" s="12">
         <v>581</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F140" s="12">
         <v>0</v>
@@ -12314,13 +12510,13 @@
         <v>580</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D141" s="12">
         <v>582</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F141" s="12">
         <v>0</v>
@@ -12334,13 +12530,13 @@
         <v>580</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D142" s="12">
         <v>583</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F142" s="12">
         <v>0</v>
@@ -12354,13 +12550,13 @@
         <v>580</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D143" s="12">
         <v>584</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F143" s="12">
         <v>0</v>
@@ -12374,13 +12570,13 @@
         <v>590</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D144" s="12">
         <v>590</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F144" s="12">
         <v>0</v>
@@ -12394,13 +12590,13 @@
         <v>590</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D145" s="12">
         <v>591</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F145" s="12">
         <v>0</v>
@@ -12414,13 +12610,13 @@
         <v>590</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D146" s="12">
         <v>592</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F146" s="12">
         <v>0</v>
@@ -12434,13 +12630,13 @@
         <v>590</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D147" s="12">
         <v>593</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F147" s="12">
         <v>0</v>
@@ -12454,13 +12650,13 @@
         <v>590</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D148" s="12">
         <v>594</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F148" s="12">
         <v>0</v>
@@ -12474,13 +12670,13 @@
         <v>590</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D149" s="12">
         <v>595</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F149" s="12">
         <v>0</v>
@@ -12494,13 +12690,13 @@
         <v>610</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D150" s="12">
         <v>610</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F150" s="12">
         <v>0</v>
@@ -12514,13 +12710,13 @@
         <v>610</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D151" s="12">
         <v>611</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F151" s="12">
         <v>0</v>
@@ -12534,13 +12730,13 @@
         <v>610</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D152" s="12">
         <v>613</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F152" s="12">
         <v>0</v>
@@ -12554,13 +12750,13 @@
         <v>620</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D153" s="12">
         <v>620</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F153" s="12">
         <v>0</v>
@@ -12574,13 +12770,13 @@
         <v>620</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D154" s="12">
         <v>621</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F154" s="12">
         <v>0</v>
@@ -12594,13 +12790,13 @@
         <v>620</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D155" s="12">
         <v>622</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F155" s="12">
         <v>0</v>
@@ -12614,13 +12810,13 @@
         <v>620</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D156" s="12">
         <v>623</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F156" s="12">
         <v>0</v>
@@ -12634,13 +12830,13 @@
         <v>630</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D157" s="12">
         <v>630</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F157" s="12">
         <v>0</v>
@@ -12654,13 +12850,13 @@
         <v>630</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D158" s="12">
         <v>631</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F158" s="12">
         <v>0</v>
@@ -12674,13 +12870,13 @@
         <v>630</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D159" s="12">
         <v>633</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F159" s="12">
         <v>0</v>
@@ -12694,13 +12890,13 @@
         <v>640</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D160" s="12">
         <v>640</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F160" s="12">
         <v>0</v>
@@ -12714,13 +12910,13 @@
         <v>640</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D161" s="12">
         <v>641</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F161" s="12">
         <v>0</v>
@@ -12734,13 +12930,13 @@
         <v>640</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D162" s="12">
         <v>642</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F162" s="12">
         <v>0</v>
@@ -12754,13 +12950,13 @@
         <v>640</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D163" s="12">
         <v>643</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F163" s="12">
         <v>0</v>
@@ -12774,13 +12970,13 @@
         <v>650</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D164" s="12">
         <v>650</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F164" s="12">
         <v>0</v>
@@ -12794,13 +12990,13 @@
         <v>650</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D165" s="12">
         <v>651</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F165" s="12">
         <v>0</v>
@@ -12814,13 +13010,13 @@
         <v>650</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D166" s="12">
         <v>652</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F166" s="12">
         <v>0</v>
@@ -12834,13 +13030,13 @@
         <v>650</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D167" s="12">
         <v>653</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F167" s="12">
         <v>0</v>
@@ -12854,13 +13050,13 @@
         <v>650</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D168" s="12">
         <v>654</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F168" s="12">
         <v>0</v>
@@ -12874,13 +13070,13 @@
         <v>660</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D169" s="12">
         <v>660</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F169" s="12">
         <v>0</v>
@@ -12894,13 +13090,13 @@
         <v>660</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D170" s="12">
         <v>663</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F170" s="12">
         <v>0</v>
@@ -12969,7 +13165,7 @@
         <v>592</v>
       </c>
       <c r="J1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K1" t="s">
         <v>152</v>
